--- a/ACOBISREM/odk forms/Household Survey/ODK Form/household.xlsx
+++ b/ACOBISREM/odk forms/Household Survey/ODK Form/household.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="16035" windowHeight="7710"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="16035" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="662">
   <si>
     <t>type</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Je mkuu wa kaya amefikia kiwango gani cha elimu?</t>
   </si>
   <si>
-    <t xml:space="preserve">Jumlisha miaka yote aliosoma.00= chini ya mwaka mmoja, 1-7 elimu ya msingi, 8-14= Elimu ya upili , &gt;14 =Elimu ya juu, 99 =Hajui </t>
-  </si>
-  <si>
     <t>select_one floor</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>Nyumba yenu imeezekewa nini?</t>
   </si>
   <si>
-    <t>Vigae, zege, simenti (saruji</t>
-  </si>
-  <si>
     <t>Bati, asbestos</t>
   </si>
   <si>
@@ -282,9 +276,6 @@
     <t>Kuni</t>
   </si>
   <si>
-    <t xml:space="preserve">Mafuta ya taa, Biogas (gesi inayotokan na kinyesi cha wanyama), mkaa </t>
-  </si>
-  <si>
     <t>Mabaki ya mazao, vifuu vya nazi, mabaki ya mbao, nyasi, pumba, kinyesi cha wanyama</t>
   </si>
   <si>
@@ -298,9 +289,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kisima kilichopo hapa nyumbani </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisima (ndundiko) cha Jumuia </t>
   </si>
   <si>
     <t>Bomba la jumuia</t>
@@ -469,9 +457,6 @@
     <t>wardrobe</t>
   </si>
   <si>
-    <t>Kabari la nguo</t>
-  </si>
-  <si>
     <t>Makochi (sofa)</t>
   </si>
   <si>
@@ -808,9 +793,6 @@
     <t>Does not know</t>
   </si>
   <si>
-    <t>select_one insecticide</t>
-  </si>
-  <si>
     <t>insecticide</t>
   </si>
   <si>
@@ -937,9 +919,6 @@
     <t>Has ${memberFName} been ill with fever in the last two weeks?</t>
   </si>
   <si>
-    <t>${memberFName} ameumwa na homa ndani ya wiki mbili zilizopita?</t>
-  </si>
-  <si>
     <t>seekTreatment</t>
   </si>
   <si>
@@ -1129,9 +1108,6 @@
     <t>Has ${memberFName} been ill with fever in the last 24 hours?</t>
   </si>
   <si>
-    <t>${memberFName} amumwa homa ndani ya masaa 24 yaliopita?</t>
-  </si>
-  <si>
     <t>sleptUnderNet</t>
   </si>
   <si>
@@ -1160,9 +1136,6 @@
   </si>
   <si>
     <t>What is the brand of the net?</t>
-  </si>
-  <si>
-    <t>ni chandarua ya aina gani?</t>
   </si>
   <si>
     <t>PermaNet</t>
@@ -1209,9 +1182,6 @@
     <t>${hasNet}=1</t>
   </si>
   <si>
-    <t>${memberFName} ana chandarua?</t>
-  </si>
-  <si>
     <t>netLastRetreated</t>
   </si>
   <si>
@@ -1343,9 +1313,6 @@
     <t>GPS Eastings/Longitude</t>
   </si>
   <si>
-    <t>GPS Northings/Longitude</t>
-  </si>
-  <si>
     <t>How educated is the head of house?</t>
   </si>
   <si>
@@ -1628,12 +1595,6 @@
     <t>whatAnimalSpray</t>
   </si>
   <si>
-    <t>What medicaed wash?</t>
-  </si>
-  <si>
-    <t>Dawa gani ilitumika?</t>
-  </si>
-  <si>
     <t>${washedAnimals} ='1'</t>
   </si>
   <si>
@@ -1751,9 +1712,6 @@
     <t>How long did ${memberFName} stay there?</t>
   </si>
   <si>
-    <t>${memberFName} alikaa huko kwa muda gani?</t>
-  </si>
-  <si>
     <t>Count days</t>
   </si>
   <si>
@@ -1763,27 +1721,18 @@
     <t>When did ${memberFName} return?</t>
   </si>
   <si>
-    <t>${memberFName} alirudi lini?</t>
-  </si>
-  <si>
     <t>outOfVillage</t>
   </si>
   <si>
     <t>Did ${memberFName} travel outside of this village?</t>
   </si>
   <si>
-    <t>${memberFName} alisafiri nje ya hichi kijiji?</t>
-  </si>
-  <si>
     <t>whereTravelledExt</t>
   </si>
   <si>
     <t>Which village did ${memberFName} travel to?</t>
   </si>
   <si>
-    <t>${memberFName} alisafiri kwenda kijiji gani?</t>
-  </si>
-  <si>
     <t>howLongAwayVillage</t>
   </si>
   <si>
@@ -1802,9 +1751,6 @@
     <t>malariaSymptoms</t>
   </si>
   <si>
-    <t>select_multiple malariaSymtpoms</t>
-  </si>
-  <si>
     <t>What are the main symptoms of malaria?</t>
   </si>
   <si>
@@ -1872,13 +1818,238 @@
   </si>
   <si>
     <t>${sleptOutside}='1'</t>
+  </si>
+  <si>
+    <t>select_one sex</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Jinsia</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>knowDob</t>
+  </si>
+  <si>
+    <t>Do you know ${memberFName}'s date of birth?</t>
+  </si>
+  <si>
+    <t>Je, unafahamu tarehe ya kuzaliwa ya ${memberFName}</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>What is ${memberFName}'s date of birth?</t>
+  </si>
+  <si>
+    <t>Tarehe ya kuzaliwa ya ${memberFName} ni lini?</t>
+  </si>
+  <si>
+    <t>${knowDob}='1'</t>
+  </si>
+  <si>
+    <t>select_multiple malariaSymptoms</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>Supervisor Name</t>
+  </si>
+  <si>
+    <t>Jina la msimamiaji</t>
+  </si>
+  <si>
+    <t>Enter UNK if Unknown</t>
+  </si>
+  <si>
+    <t>Ingiza UNI kama halijulikani</t>
+  </si>
+  <si>
+    <t>Mud</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Terrazzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>Stones, cement, brick</t>
+  </si>
+  <si>
+    <t>Local bricks, sand or wood</t>
+  </si>
+  <si>
+    <t>Iron sheeting, daub, mianzi</t>
+  </si>
+  <si>
+    <t>Grass,Cardboard</t>
+  </si>
+  <si>
+    <t>Vigae, zege, simenti (saruji)</t>
+  </si>
+  <si>
+    <t>Tiles, concrete, cement</t>
+  </si>
+  <si>
+    <t>Iron sheeting, asbestos</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Electricity, Gas or Solar</t>
+  </si>
+  <si>
+    <t>Kerosene, biogas or charcoal</t>
+  </si>
+  <si>
+    <t>Agricultural waste</t>
+  </si>
+  <si>
+    <t>Tap water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Well </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Well </t>
+  </si>
+  <si>
+    <t>Public Tap</t>
+  </si>
+  <si>
+    <t>Water sellers</t>
+  </si>
+  <si>
+    <t>River/Spring</t>
+  </si>
+  <si>
+    <t>Rainwater</t>
+  </si>
+  <si>
+    <t>Modern flush toilet</t>
+  </si>
+  <si>
+    <t>Modern pit toilet</t>
+  </si>
+  <si>
+    <t>Pit latrine</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Candle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafuta ya taa, Biogas (gesi inayotokana na kinyesi cha wanyama), mkaa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisima (mdundiko) cha Jumuia </t>
+  </si>
+  <si>
+    <t>submission_url</t>
+  </si>
+  <si>
+    <t>Kabati la nguo</t>
+  </si>
+  <si>
+    <t>Haina</t>
+  </si>
+  <si>
+    <t>TNG</t>
+  </si>
+  <si>
+    <t>Majani au udongo</t>
+  </si>
+  <si>
+    <t>What medicated wash?</t>
+  </si>
+  <si>
+    <t>Dawa gani ilitumika kuoogesha wanyama?</t>
+  </si>
+  <si>
+    <t>select_multiple insecticide</t>
+  </si>
+  <si>
+    <t>Jaza form kwa kila mwana kaya</t>
+  </si>
+  <si>
+    <t>Enter UNK if unknown</t>
+  </si>
+  <si>
+    <t>Ingiza UNK kama halijulikani</t>
+  </si>
+  <si>
+    <t>Je, ${memberFName} ameumwa homa ndani ya masaa 24 yaliopita?</t>
+  </si>
+  <si>
+    <t>Je, ${memberFName}  ameumwa na homa ndani ya wiki mbili zilizopita?</t>
+  </si>
+  <si>
+    <t>Je, ${memberFName} ana chandarua?</t>
+  </si>
+  <si>
+    <t>Net ni ya tangu lini?</t>
+  </si>
+  <si>
+    <t>Ni chandarua ya aina gani?</t>
+  </si>
+  <si>
+    <t>Je, ${memberFName} alikaa huko kwa muda gani?</t>
+  </si>
+  <si>
+    <t>Je, ${memberFName} alirudi lini?</t>
+  </si>
+  <si>
+    <t>Je, ${memberFName} alisafiri nje ya hichi kijiji?</t>
+  </si>
+  <si>
+    <t>Je, ${memberFName} alisafiri kwenda kijiji gani?</t>
+  </si>
+  <si>
+    <t>http://41.93.34.198/zodk</t>
+  </si>
+  <si>
+    <t>${everRetreated}=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1951,6 +2122,20 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1969,10 +2154,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2001,8 +2187,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2302,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O155"/>
+  <dimension ref="A1:O163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154:XFD154"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,16 +2555,16 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -2384,16 +2573,16 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
@@ -2422,32 +2611,32 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>416</v>
+      <c r="B6" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
+        <v>606</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2456,13 +2645,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>327</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -2473,52 +2662,58 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>607</v>
+      </c>
+      <c r="O8" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C11" t="s">
-        <v>421</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>422</v>
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>409</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>411</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2526,13 +2721,13 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -2543,13 +2738,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -2557,38 +2752,38 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" t="s">
-        <v>423</v>
-      </c>
-      <c r="C17" t="s">
-        <v>425</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>424</v>
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>413</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>415</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2596,16 +2791,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>426</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E19" t="s">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2616,16 +2808,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E20" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -2636,13 +2828,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>417</v>
+      </c>
+      <c r="E21" t="s">
+        <v>324</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -2653,13 +2848,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>333</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>334</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -2670,70 +2865,76 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="C23" t="s">
-        <v>430</v>
+        <v>326</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
+      </c>
+      <c r="N23" t="s">
+        <v>607</v>
+      </c>
+      <c r="O23" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
-      </c>
-      <c r="O24" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B25" t="s">
-        <v>431</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>433</v>
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>154</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
-      </c>
-      <c r="O25" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>513</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>420</v>
       </c>
       <c r="C26" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>422</v>
+      </c>
+      <c r="E26" t="s">
+        <v>154</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
@@ -2741,301 +2942,319 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>154</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
-      <c r="O30" t="s">
-        <v>81</v>
+      <c r="G30" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>154</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
-      <c r="G31" t="s">
-        <v>113</v>
+      <c r="O31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>437</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>84</v>
+        <v>425</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>154</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>154</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="E37" t="s">
+        <v>154</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>154</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>441</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="O40" t="s">
-        <v>125</v>
+        <v>429</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>458</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" t="s">
-        <v>19</v>
+        <v>430</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O41" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -3043,19 +3262,19 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>431</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" t="s">
-        <v>443</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -3063,19 +3282,19 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>432</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -3083,19 +3302,19 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>444</v>
+        <v>127</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
@@ -3103,19 +3322,19 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -3123,19 +3342,19 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -3143,19 +3362,19 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -3163,19 +3382,19 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -3183,19 +3402,19 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>145</v>
+        <v>641</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
@@ -3203,19 +3422,19 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
@@ -3223,19 +3442,19 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -3243,19 +3462,19 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -3263,19 +3482,19 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" t="s">
         <v>154</v>
-      </c>
-      <c r="E54" t="s">
-        <v>159</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -3283,19 +3502,19 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
@@ -3303,19 +3522,19 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -3323,16 +3542,19 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>466</v>
+        <v>153</v>
+      </c>
+      <c r="E57" t="s">
+        <v>154</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -3340,52 +3562,52 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" t="s">
-        <v>457</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>163</v>
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="s">
+        <v>445</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>467</v>
+        <v>156</v>
       </c>
       <c r="B61" t="s">
-        <v>468</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F61" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>456</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
-      </c>
-      <c r="D62" t="s">
-        <v>471</v>
+        <v>458</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -3393,25 +3615,19 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>479</v>
+        <v>160</v>
+      </c>
+      <c r="D63" t="s">
+        <v>460</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
-      </c>
-      <c r="N63" t="s">
-        <v>478</v>
-      </c>
-      <c r="O63" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -3419,730 +3635,736 @@
         <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>170</v>
+        <v>468</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
       <c r="N64" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="O64" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>541</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" t="s">
-        <v>485</v>
+        <v>164</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
+      </c>
+      <c r="N65" t="s">
+        <v>469</v>
+      </c>
+      <c r="O65" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>528</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>482</v>
+        <v>170</v>
+      </c>
+      <c r="D67" t="s">
+        <v>471</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>323</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>186</v>
+        <v>471</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
+      </c>
+      <c r="G68" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" t="s">
-        <v>487</v>
+        <v>180</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
-      </c>
-      <c r="N69" t="s">
-        <v>489</v>
-      </c>
-      <c r="O69" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D70" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
       </c>
       <c r="N70" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="O70" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>491</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>495</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>493</v>
+        <v>477</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="N71" t="s">
+        <v>478</v>
+      </c>
+      <c r="O71" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C72" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D72" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>481</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="N73" t="s">
-        <v>545</v>
-      </c>
-      <c r="O73" t="s">
-        <v>81</v>
+        <v>483</v>
+      </c>
+      <c r="D73" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>195</v>
+        <v>486</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
       </c>
-      <c r="G74" t="s">
-        <v>196</v>
+      <c r="N74" t="s">
+        <v>532</v>
+      </c>
+      <c r="O74" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>324</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C78" t="s">
-        <v>207</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C82" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>45</v>
       </c>
-      <c r="B83" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" t="s">
-        <v>225</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>126</v>
-      </c>
-      <c r="B85" t="s">
-        <v>228</v>
-      </c>
-      <c r="C85" t="s">
-        <v>192</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="N85" t="s">
-        <v>545</v>
-      </c>
-      <c r="O85" t="s">
-        <v>81</v>
+      <c r="B84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
-      <c r="G86" t="s">
-        <v>229</v>
+      <c r="N86" t="s">
+        <v>532</v>
+      </c>
+      <c r="O86" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
         <v>237</v>
-      </c>
-      <c r="C92" t="s">
-        <v>215</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C93" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C94" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C95" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B96" t="s">
-        <v>519</v>
+        <v>236</v>
       </c>
       <c r="C96" t="s">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>551</v>
+        <v>338</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>521</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" t="s">
+        <v>508</v>
+      </c>
+      <c r="C97" t="s">
+        <v>509</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>20</v>
       </c>
-      <c r="B97" t="s">
-        <v>522</v>
-      </c>
-      <c r="C97" t="s">
-        <v>523</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>126</v>
-      </c>
-      <c r="B100" t="s">
-        <v>245</v>
-      </c>
-      <c r="C100" t="s">
-        <v>498</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="F100" t="s">
-        <v>19</v>
+      <c r="B98" t="s">
+        <v>511</v>
+      </c>
+      <c r="C98" t="s">
+        <v>645</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>500</v>
+        <v>122</v>
       </c>
       <c r="B101" t="s">
-        <v>499</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
-      </c>
-      <c r="G101" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>489</v>
       </c>
       <c r="B102" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="C102" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
+      </c>
+      <c r="G102" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B103" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="C103" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>514</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4150,601 +4372,605 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="C104" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>247</v>
+        <v>505</v>
       </c>
       <c r="C105" t="s">
-        <v>248</v>
+        <v>506</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>250</v>
+        <v>507</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
+      </c>
+      <c r="G105" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
+      </c>
+      <c r="C106" t="s">
+        <v>243</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
-      </c>
-      <c r="G106" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B109" t="s">
-        <v>263</v>
-      </c>
-      <c r="C109" t="s">
-        <v>264</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>265</v>
+        <v>647</v>
+      </c>
+      <c r="B107" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B110" t="s">
-        <v>552</v>
+        <v>257</v>
       </c>
       <c r="C110" t="s">
-        <v>553</v>
+        <v>258</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>281</v>
+        <v>539</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>540</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>265</v>
+        <v>648</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B112" t="s">
-        <v>267</v>
-      </c>
-      <c r="C112" t="s">
-        <v>268</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="F112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C113" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F113" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C114" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>274</v>
+        <v>533</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C115" t="s">
+        <v>264</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116" t="s">
+        <v>267</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F116" t="s">
+        <v>19</v>
+      </c>
+      <c r="N116" t="s">
+        <v>649</v>
+      </c>
+      <c r="O116" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>269</v>
+      </c>
+      <c r="C117" t="s">
+        <v>270</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B118" t="s">
+        <v>588</v>
+      </c>
+      <c r="C118" t="s">
+        <v>589</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>595</v>
+      </c>
+      <c r="C119" t="s">
+        <v>596</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>598</v>
+      </c>
+      <c r="C120" t="s">
+        <v>599</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="B122" t="s">
+        <v>279</v>
+      </c>
+      <c r="C122" t="s">
+        <v>278</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F122" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B123" t="s">
         <v>277</v>
       </c>
-      <c r="C116" t="s">
-        <v>278</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F116" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
+      <c r="C123" t="s">
+        <v>280</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B117" t="s">
+      <c r="F123" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B124" t="s">
+        <v>283</v>
+      </c>
+      <c r="C124" t="s">
+        <v>284</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C117" t="s">
-        <v>284</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="F124" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B125" t="s">
+        <v>286</v>
+      </c>
+      <c r="C125" t="s">
         <v>287</v>
       </c>
-      <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B118" t="s">
-        <v>283</v>
-      </c>
-      <c r="C118" t="s">
-        <v>286</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="F125" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126" t="s">
         <v>289</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C126" t="s">
         <v>290</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="F126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127" t="s">
         <v>292</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C127" t="s">
         <v>293</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D127" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B128" t="s">
         <v>294</v>
       </c>
-      <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="C128" t="s">
         <v>295</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D128" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
         <v>297</v>
-      </c>
-      <c r="F121" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B122" t="s">
-        <v>298</v>
-      </c>
-      <c r="C122" t="s">
-        <v>299</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" t="s">
-        <v>301</v>
-      </c>
-      <c r="C123" t="s">
-        <v>302</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B124" t="s">
-        <v>306</v>
-      </c>
-      <c r="C124" t="s">
-        <v>307</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B125" t="s">
-        <v>348</v>
-      </c>
-      <c r="C125" t="s">
-        <v>349</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
-        <v>362</v>
-      </c>
-      <c r="C126" t="s">
-        <v>363</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F126" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>384</v>
-      </c>
-      <c r="C127" t="s">
-        <v>385</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>365</v>
-      </c>
-      <c r="C128" t="s">
-        <v>366</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="B129" t="s">
-        <v>368</v>
+        <v>299</v>
       </c>
       <c r="C129" t="s">
-        <v>369</v>
+        <v>300</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>386</v>
-      </c>
-      <c r="N129" t="s">
-        <v>370</v>
-      </c>
-      <c r="O129" t="s">
-        <v>371</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="B130" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C130" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="F130" t="s">
         <v>19</v>
       </c>
       <c r="G130" t="s">
-        <v>386</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B131" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="C131" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>383</v>
+        <v>651</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B132" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C132" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>390</v>
+        <v>653</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
-      </c>
-      <c r="G132" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B133" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="C133" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="C134" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>396</v>
+        <v>654</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>377</v>
+      </c>
+      <c r="N134" t="s">
+        <v>362</v>
+      </c>
+      <c r="O134" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="B135" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="C135" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>399</v>
+        <v>655</v>
       </c>
       <c r="F135" t="s">
         <v>19</v>
       </c>
       <c r="G135" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>400</v>
+        <v>122</v>
       </c>
       <c r="B136" t="s">
-        <v>401</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>402</v>
+        <v>372</v>
+      </c>
+      <c r="C136" t="s">
+        <v>373</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="F136" t="s">
         <v>19</v>
       </c>
       <c r="G136" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="B137" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="C137" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="F137" t="s">
         <v>19</v>
+      </c>
+      <c r="G137" t="s">
+        <v>661</v>
+      </c>
+      <c r="N137" t="s">
+        <v>362</v>
+      </c>
+      <c r="O137" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B138" t="s">
-        <v>459</v>
+        <v>381</v>
       </c>
       <c r="C138" t="s">
-        <v>460</v>
+        <v>382</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
@@ -4752,186 +4978,153 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B139" t="s">
-        <v>462</v>
+        <v>384</v>
       </c>
       <c r="C139" t="s">
-        <v>463</v>
+        <v>385</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>464</v>
+        <v>386</v>
       </c>
       <c r="F139" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" s="7"/>
+      <c r="A140" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B140" t="s">
+        <v>387</v>
+      </c>
+      <c r="C140" t="s">
+        <v>388</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F140" t="s">
+        <v>19</v>
+      </c>
+      <c r="G140" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>161</v>
+      <c r="A141" s="7" t="s">
+        <v>390</v>
       </c>
       <c r="B141" t="s">
-        <v>465</v>
-      </c>
-      <c r="C141" t="s">
-        <v>556</v>
+        <v>391</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>392</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>557</v>
+        <v>393</v>
+      </c>
+      <c r="F141" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B142" t="s">
-        <v>558</v>
+        <v>399</v>
       </c>
       <c r="C142" t="s">
-        <v>561</v>
+        <v>400</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>562</v>
+        <v>401</v>
       </c>
       <c r="F142" t="s">
         <v>19</v>
-      </c>
-      <c r="G142" t="s">
-        <v>604</v>
-      </c>
-      <c r="N142" t="s">
-        <v>33</v>
-      </c>
-      <c r="O142" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B143" t="s">
-        <v>559</v>
+        <v>448</v>
       </c>
       <c r="C143" t="s">
-        <v>563</v>
+        <v>449</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>564</v>
+        <v>450</v>
       </c>
       <c r="F143" t="s">
         <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>604</v>
-      </c>
-      <c r="N143" t="s">
-        <v>565</v>
-      </c>
-      <c r="O143" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B144" t="s">
-        <v>560</v>
+        <v>451</v>
       </c>
       <c r="C144" t="s">
-        <v>567</v>
+        <v>452</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>568</v>
+        <v>453</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
       </c>
-      <c r="G144" t="s">
-        <v>604</v>
-      </c>
-      <c r="N144" t="s">
-        <v>565</v>
-      </c>
-      <c r="O144" t="s">
-        <v>566</v>
-      </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B145" t="s">
-        <v>569</v>
-      </c>
-      <c r="C145" t="s">
-        <v>570</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>604</v>
-      </c>
+      <c r="A145" s="7"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
-        <v>20</v>
+      <c r="A146" t="s">
+        <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>572</v>
+        <v>454</v>
       </c>
       <c r="C146" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F146" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" t="s">
-        <v>604</v>
-      </c>
-      <c r="N146" t="s">
-        <v>30</v>
-      </c>
-      <c r="O146" t="s">
-        <v>31</v>
+        <v>544</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="C147" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="F147" t="s">
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="N147" t="s">
-        <v>565</v>
+        <v>33</v>
       </c>
       <c r="O147" t="s">
-        <v>566</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
@@ -4939,104 +5132,238 @@
         <v>45</v>
       </c>
       <c r="B148" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="C148" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>568</v>
+        <v>656</v>
       </c>
       <c r="F148" t="s">
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="N148" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="O148" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
+      <c r="A149" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B149" t="s">
+        <v>547</v>
+      </c>
+      <c r="C149" t="s">
+        <v>553</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F149" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>586</v>
+      </c>
+      <c r="N149" t="s">
+        <v>551</v>
+      </c>
+      <c r="O149" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B150" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="C150" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>579</v>
+        <v>658</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>581</v>
+        <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="C151" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>583</v>
+        <v>659</v>
       </c>
       <c r="F151" t="s">
         <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>586</v>
+      </c>
+      <c r="N151" t="s">
+        <v>30</v>
+      </c>
+      <c r="O151" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>594</v>
+        <v>45</v>
       </c>
       <c r="B152" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="C152" t="s">
-        <v>592</v>
+        <v>550</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>593</v>
+        <v>656</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>586</v>
+      </c>
+      <c r="N152" t="s">
+        <v>551</v>
+      </c>
+      <c r="O152" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>590</v>
+        <v>45</v>
       </c>
       <c r="B153" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="C153" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>596</v>
+        <v>657</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>586</v>
+      </c>
+      <c r="N153" t="s">
+        <v>551</v>
+      </c>
+      <c r="O153" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>266</v>
+      <c r="A155" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B155" t="s">
+        <v>560</v>
+      </c>
+      <c r="C155" t="s">
+        <v>561</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B156" t="s">
+        <v>563</v>
+      </c>
+      <c r="C156" t="s">
+        <v>564</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B157" t="s">
+        <v>573</v>
+      </c>
+      <c r="C157" t="s">
+        <v>574</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B158" t="s">
+        <v>577</v>
+      </c>
+      <c r="C158" t="s">
+        <v>579</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159" s="7"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5047,21 +5374,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122:D126"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="1" max="1" width="22.85546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5076,1623 +5403,1780 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>609</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>610</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>612</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>611</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>99</v>
       </c>
+      <c r="C6" t="s">
+        <v>613</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>98</v>
       </c>
+      <c r="C7" t="s">
+        <v>541</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>614</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9" t="s">
+        <v>615</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
+      <c r="C10" t="s">
+        <v>616</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11" t="s">
+        <v>617</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>99</v>
       </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>98</v>
       </c>
+      <c r="C13" t="s">
+        <v>541</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14" t="s">
+        <v>619</v>
+      </c>
       <c r="D14" s="8" t="s">
-        <v>78</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15" t="s">
+        <v>620</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17">
         <v>99</v>
       </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>98</v>
       </c>
+      <c r="C18" t="s">
+        <v>541</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19" t="s">
+        <v>622</v>
+      </c>
       <c r="D19" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
+      <c r="C20" t="s">
+        <v>610</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
+      <c r="C21" t="s">
+        <v>623</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>88</v>
+        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
+      <c r="C22" t="s">
+        <v>624</v>
+      </c>
       <c r="D22" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>99</v>
       </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24">
         <v>98</v>
       </c>
+      <c r="C24" t="s">
+        <v>541</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25" t="s">
+        <v>625</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
+      <c r="C26" t="s">
+        <v>627</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
+      <c r="C27" t="s">
+        <v>626</v>
+      </c>
       <c r="D27" s="9" t="s">
-        <v>94</v>
+        <v>639</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
+      <c r="C28" t="s">
+        <v>628</v>
+      </c>
       <c r="D28" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
+      <c r="C29" t="s">
+        <v>629</v>
+      </c>
       <c r="D29" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
+      <c r="C30" t="s">
+        <v>630</v>
+      </c>
       <c r="D30" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
+      <c r="C31" t="s">
+        <v>631</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32">
         <v>99</v>
       </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B33">
         <v>98</v>
       </c>
+      <c r="C33" t="s">
+        <v>541</v>
+      </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
+      <c r="C34" t="s">
+        <v>632</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
+      <c r="C35" t="s">
+        <v>633</v>
+      </c>
       <c r="D35" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
+      <c r="C36" t="s">
+        <v>634</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
+      <c r="C37" t="s">
+        <v>635</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B38">
         <v>99</v>
       </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B39">
         <v>98</v>
       </c>
+      <c r="C39" t="s">
+        <v>541</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
+      <c r="C40" t="s">
+        <v>636</v>
+      </c>
       <c r="D40" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
+      <c r="C41" t="s">
+        <v>637</v>
+      </c>
       <c r="D41" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
+      <c r="C42" t="s">
+        <v>621</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B43">
         <v>99</v>
       </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
       <c r="D43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B44">
         <v>98</v>
       </c>
+      <c r="C44" t="s">
+        <v>541</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B47">
         <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B52">
         <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B57">
         <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B64">
         <v>7</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B65">
         <v>8</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B66">
         <v>9</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B67">
         <v>10</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B68">
         <v>11</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B69">
         <v>12</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B73">
         <v>4</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B74">
         <v>5</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B76">
         <v>7</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B77">
         <v>8</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B78">
         <v>9</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B79">
         <v>10</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B80">
         <v>11</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B85">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>554</v>
+        <v>371</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>555</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>380</v>
+        <v>541</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>380</v>
+        <v>542</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>472</v>
+        <v>642</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>473</v>
+        <v>57</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>474</v>
+        <v>643</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B94">
         <v>4</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B96">
         <v>99</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B106">
         <v>6</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B107">
         <v>7</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B108">
         <v>8</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B110">
         <v>2</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B111">
         <v>3</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B113">
         <v>2</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B114">
         <v>3</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B115">
         <v>98</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B116">
         <v>99</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="B120">
         <v>98</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="B121">
         <v>99</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B124">
         <v>3</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B125">
         <v>98</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B126">
         <v>99</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -6703,31 +7187,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="18" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
+      <c r="C2" s="19" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ACOBISREM/odk forms/Household Survey/ODK Form/household.xlsx
+++ b/ACOBISREM/odk forms/Household Survey/ODK Form/household.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="858">
   <si>
     <t>type</t>
   </si>
@@ -433,9 +433,6 @@
     <t>otherAnimals</t>
   </si>
   <si>
-    <t>Mifugo ingine</t>
-  </si>
-  <si>
     <t>bed</t>
   </si>
   <si>
@@ -499,9 +496,6 @@
     <t>Gari au trekta</t>
   </si>
   <si>
-    <t>quick</t>
-  </si>
-  <si>
     <t>nearestHF</t>
   </si>
   <si>
@@ -535,9 +529,6 @@
     <t>Kuna madirisha mangapi?</t>
   </si>
   <si>
-    <t>windowNetting</t>
-  </si>
-  <si>
     <t>Are the windows screened with netting?</t>
   </si>
   <si>
@@ -550,15 +541,9 @@
     <t>What are the windows screened with?</t>
   </si>
   <si>
-    <t>Net ya zamani</t>
-  </si>
-  <si>
     <t>screenMaterialOther</t>
   </si>
   <si>
-    <t>${windowNetting}='1'</t>
-  </si>
-  <si>
     <t>yesNo</t>
   </si>
   <si>
@@ -916,9 +901,6 @@
     <t>fever</t>
   </si>
   <si>
-    <t>Has ${memberFName} been ill with fever in the last two weeks?</t>
-  </si>
-  <si>
     <t>seekTreatment</t>
   </si>
   <si>
@@ -928,12 +910,6 @@
     <t>Ulitafuta ushauri/tiba kutokea popote kuhusu hii homa?</t>
   </si>
   <si>
-    <t>${fever}=1</t>
-  </si>
-  <si>
-    <t>select_one whereTreated</t>
-  </si>
-  <si>
     <t>whereTreated</t>
   </si>
   <si>
@@ -943,9 +919,6 @@
     <t>Wapi ulitafuta ushauri/tiba?</t>
   </si>
   <si>
-    <t>${seekTreatment}=1</t>
-  </si>
-  <si>
     <t>Government Hospital</t>
   </si>
   <si>
@@ -997,18 +970,6 @@
     <t>hamletLeaderMName</t>
   </si>
   <si>
-    <t>Jina la kati la mkuu wa kitongoji</t>
-  </si>
-  <si>
-    <t>interviewerName</t>
-  </si>
-  <si>
-    <t>Interviewer Name</t>
-  </si>
-  <si>
-    <t>Jina la mhojaji</t>
-  </si>
-  <si>
     <t>numbers</t>
   </si>
   <si>
@@ -1054,21 +1015,12 @@
     <t>Mna mbwa au paka wangapi nje?</t>
   </si>
   <si>
-    <t>${sleepHere} ='1'</t>
-  </si>
-  <si>
-    <t>select_one whatDrugs</t>
-  </si>
-  <si>
     <t>whatDrugs</t>
   </si>
   <si>
     <t>What medicine was given to ${memberFName} at that facility ?</t>
   </si>
   <si>
-    <t>${memberFName} alipewa dawa gani kwenye hicho kituo cha afya?</t>
-  </si>
-  <si>
     <t>SP/FANSIDAR</t>
   </si>
   <si>
@@ -1102,12 +1054,6 @@
     <t>DON’T KNOW</t>
   </si>
   <si>
-    <t>hadFever</t>
-  </si>
-  <si>
-    <t>Has ${memberFName} been ill with fever in the last 24 hours?</t>
-  </si>
-  <si>
     <t>sleptUnderNet</t>
   </si>
   <si>
@@ -1121,12 +1067,6 @@
   </si>
   <si>
     <t>How long ago was the net obtained?</t>
-  </si>
-  <si>
-    <t>In years</t>
-  </si>
-  <si>
-    <t>Miaka</t>
   </si>
   <si>
     <t>select_one netBrand</t>
@@ -1170,36 +1110,24 @@
     <t>Since you got the net, was it ever retreated</t>
   </si>
   <si>
-    <t>Tangu upate hilo chandarua, lishawai kuwekewa dawa tena?</t>
-  </si>
-  <si>
     <t>hasNet</t>
   </si>
   <si>
     <t>Does ${memberFName have a mosquito net?</t>
   </si>
   <si>
-    <t>${hasNet}=1</t>
-  </si>
-  <si>
     <t>netLastRetreated</t>
   </si>
   <si>
     <t>How long ago was ${memberFName}'s net last retreated?</t>
   </si>
   <si>
-    <t>Lini mara ya mwisho chandarua la ${memberFName} limewekewa dawa tena?</t>
-  </si>
-  <si>
     <t>presentForAnemiaTest</t>
   </si>
   <si>
     <t>Is ${memberFName} present for malaria/anemia test today?</t>
   </si>
   <si>
-    <t>Je, ${memberFName} atapatikanika leo kwajili ya kumpima malaria/anemia?</t>
-  </si>
-  <si>
     <t>mrdtTaken</t>
   </si>
   <si>
@@ -1212,9 +1140,6 @@
     <t>mrdtResults</t>
   </si>
   <si>
-    <t>mRDT results</t>
-  </si>
-  <si>
     <t>Matokeo ya mRDT?</t>
   </si>
   <si>
@@ -1234,9 +1159,6 @@
   </si>
   <si>
     <t>Treated by study clinician</t>
-  </si>
-  <si>
-    <t>Prescription by SC</t>
   </si>
   <si>
     <r>
@@ -1265,12 +1187,6 @@
     <t>Je, ${memberFName} amechukuliwa Blood Smear?</t>
   </si>
   <si>
-    <t>formSerialNumber</t>
-  </si>
-  <si>
-    <t>Form Serial Number</t>
-  </si>
-  <si>
     <t>formInfo</t>
   </si>
   <si>
@@ -1304,9 +1220,6 @@
     <t>Taarifa za Kaya</t>
   </si>
   <si>
-    <t>Househole Information</t>
-  </si>
-  <si>
     <t>GPS Northings/Latitude</t>
   </si>
   <si>
@@ -1439,9 +1352,6 @@
     <t>Kaya ina dari la aina gani?</t>
   </si>
   <si>
-    <t>Je kuna uwazi kati ya ukuta na bati?</t>
-  </si>
-  <si>
     <t>No ceiling</t>
   </si>
   <si>
@@ -1463,9 +1373,6 @@
     <t>(From  floor to ceiling/where wall meets roof) In centimetres</t>
   </si>
   <si>
-    <t>Nyumba in urefu gani?</t>
-  </si>
-  <si>
     <t>Ask</t>
   </si>
   <si>
@@ -1478,12 +1385,6 @@
     <t>Net from shop</t>
   </si>
   <si>
-    <t>Net ya dukani (wire net)</t>
-  </si>
-  <si>
-    <t>Je, madirisha yote yamewekewa net?</t>
-  </si>
-  <si>
     <t>Old bed net</t>
   </si>
   <si>
@@ -1496,9 +1397,6 @@
     <t>For cooking or heating inhouse heating</t>
   </si>
   <si>
-    <t>Kwaw kupikia au kuotea moto</t>
-  </si>
-  <si>
     <t>fireOutsideInDrySeason</t>
   </si>
   <si>
@@ -1526,9 +1424,6 @@
     <t>periodLastIRS</t>
   </si>
   <si>
-    <t>select_one periodLastIRS</t>
-  </si>
-  <si>
     <t>0-3 months</t>
   </si>
   <si>
@@ -1649,9 +1544,6 @@
     <t>yesNoPartial</t>
   </si>
   <si>
-    <t>Baadhi ya madirisha yana neti ila sio yote</t>
-  </si>
-  <si>
     <t>Yes, but partial (only some windows screened)</t>
   </si>
   <si>
@@ -1667,33 +1559,18 @@
     <t>Ni lini tangu nyumba ipuliziwe dawa ya ukoko?</t>
   </si>
   <si>
-    <t>Je,umewahii kupuliziwa dawa ya ukoko katika nyumba yako ndani ya miezi 12 iliopita?</t>
-  </si>
-  <si>
     <t>Dawa uliotumia inaitwaje?</t>
   </si>
   <si>
-    <t>Kwa kawaida huwa mnaosha wanyama kwa dawa?</t>
-  </si>
-  <si>
     <t>memberNote</t>
   </si>
   <si>
-    <t>Fill out form for all household members</t>
-  </si>
-  <si>
     <t>Don't Know</t>
   </si>
   <si>
     <t>Haijulikani</t>
   </si>
   <si>
-    <t>Travel History and Knowledge Questions</t>
-  </si>
-  <si>
-    <t>Historia ya Kusafiri na Ujuzi</t>
-  </si>
-  <si>
     <t>whereTravelled</t>
   </si>
   <si>
@@ -1742,12 +1619,6 @@
     <t>knowMalaria</t>
   </si>
   <si>
-    <t>Do you know what is malaria?</t>
-  </si>
-  <si>
-    <t>Je, Unajua malaria ni nini?</t>
-  </si>
-  <si>
     <t>malariaSymptoms</t>
   </si>
   <si>
@@ -1883,9 +1754,6 @@
     <t>Enter UNK if Unknown</t>
   </si>
   <si>
-    <t>Ingiza UNI kama halijulikani</t>
-  </si>
-  <si>
     <t>Mud</t>
   </si>
   <si>
@@ -1979,9 +1847,6 @@
     <t xml:space="preserve">Kisima (mdundiko) cha Jumuia </t>
   </si>
   <si>
-    <t>submission_url</t>
-  </si>
-  <si>
     <t>Kabati la nguo</t>
   </si>
   <si>
@@ -1997,33 +1862,18 @@
     <t>What medicated wash?</t>
   </si>
   <si>
-    <t>Dawa gani ilitumika kuoogesha wanyama?</t>
-  </si>
-  <si>
     <t>select_multiple insecticide</t>
   </si>
   <si>
-    <t>Jaza form kwa kila mwana kaya</t>
-  </si>
-  <si>
     <t>Enter UNK if unknown</t>
   </si>
   <si>
     <t>Ingiza UNK kama halijulikani</t>
   </si>
   <si>
-    <t>Je, ${memberFName} ameumwa homa ndani ya masaa 24 yaliopita?</t>
-  </si>
-  <si>
-    <t>Je, ${memberFName}  ameumwa na homa ndani ya wiki mbili zilizopita?</t>
-  </si>
-  <si>
     <t>Je, ${memberFName} ana chandarua?</t>
   </si>
   <si>
-    <t>Net ni ya tangu lini?</t>
-  </si>
-  <si>
     <t>Ni chandarua ya aina gani?</t>
   </si>
   <si>
@@ -2033,16 +1883,754 @@
     <t>Je, ${memberFName} alirudi lini?</t>
   </si>
   <si>
-    <t>Je, ${memberFName} alisafiri nje ya hichi kijiji?</t>
-  </si>
-  <si>
     <t>Je, ${memberFName} alisafiri kwenda kijiji gani?</t>
   </si>
   <si>
-    <t>http://41.93.34.198/zodk</t>
-  </si>
-  <si>
-    <t>${everRetreated}=1</t>
+    <t>Nyumba ina urefu gani?</t>
+  </si>
+  <si>
+    <t>Kwa kupikia au kuotea moto</t>
+  </si>
+  <si>
+    <t>Mifugo mingine</t>
+  </si>
+  <si>
+    <t>Je, kuna uwazi kati ya ukuta na paa?</t>
+  </si>
+  <si>
+    <t>windowScreen</t>
+  </si>
+  <si>
+    <t>Je, madirisha yote yamezibwa?</t>
+  </si>
+  <si>
+    <t>${hasNet}='1' or ${sleptUnderNet} ='1'</t>
+  </si>
+  <si>
+    <t>Je, huwa mnaogesha mifugo kwa dawa?</t>
+  </si>
+  <si>
+    <t>Dawa gani ilitumika kuogesha wanyama?</t>
+  </si>
+  <si>
+    <t>Tangu upate hicho chandarua, kimeshawai kuwekewa dawa tena?</t>
+  </si>
+  <si>
+    <t>Kutetemeka</t>
+  </si>
+  <si>
+    <t>Je, katika siku 14 zilizopita ${memberFName}  alipata kuugua homa au malaria?</t>
+  </si>
+  <si>
+    <t>Has ${memberFName} been ill with fever in the last 14 days}</t>
+  </si>
+  <si>
+    <t>whenFeverStart</t>
+  </si>
+  <si>
+    <t>When did the fever/malaria start?</t>
+  </si>
+  <si>
+    <t>Je ugonjwa huu ulianza lini?</t>
+  </si>
+  <si>
+    <t>In days 0 = Today, 1 = 1 day, 86 = 86 Days,  87 = 87 days and above, 99 = Don't Know</t>
+  </si>
+  <si>
+    <t>Siku zilizopita 0 = Leo, 1 = Siku Moja, 86 = Siku 86, 87 = Siku 87 na zaidi, 99 = Hajui</t>
+  </si>
+  <si>
+    <t>symptomsSeen</t>
+  </si>
+  <si>
+    <t>Je, ugonjwa huu ulikuwa una dalili gani?</t>
+  </si>
+  <si>
+    <t>What symptoms did the malaria/fever have?</t>
+  </si>
+  <si>
+    <t>Homa/joto/chemchem/kuchemka</t>
+  </si>
+  <si>
+    <t>Kuumwa kichwa</t>
+  </si>
+  <si>
+    <t>Kizunguzungu</t>
+  </si>
+  <si>
+    <t>Kutapika</t>
+  </si>
+  <si>
+    <t>Kupumua haraka haraka</t>
+  </si>
+  <si>
+    <t>Mapigo ya mwili/degedege/shtuka shtuka</t>
+  </si>
+  <si>
+    <t>Baridi/Kutetemeka</t>
+  </si>
+  <si>
+    <t>Maumivu ya mwili</t>
+  </si>
+  <si>
+    <t>Kuharisha</t>
+  </si>
+  <si>
+    <t>Kikohozi</t>
+  </si>
+  <si>
+    <t>Kupoteza fahamu</t>
+  </si>
+  <si>
+    <t>Headache</t>
+  </si>
+  <si>
+    <t>Dizzyness</t>
+  </si>
+  <si>
+    <t>Vomiting</t>
+  </si>
+  <si>
+    <t>Breathing rapidly</t>
+  </si>
+  <si>
+    <t>Convulsions</t>
+  </si>
+  <si>
+    <t>Chills</t>
+  </si>
+  <si>
+    <t>Body aches</t>
+  </si>
+  <si>
+    <t>Diarhoea</t>
+  </si>
+  <si>
+    <t>Coughing</t>
+  </si>
+  <si>
+    <t>Fainting/Losing consciousness</t>
+  </si>
+  <si>
+    <t>Sijui</t>
+  </si>
+  <si>
+    <t>${presentForAnemiaTest}='1'</t>
+  </si>
+  <si>
+    <t>whatDrugsOther</t>
+  </si>
+  <si>
+    <t>Siku ngapi zilipita baada ya kuanza homa ulienda kupata matibabu?</t>
+  </si>
+  <si>
+    <t>How many days elapsed after onset of fever before seeking treatment?</t>
+  </si>
+  <si>
+    <t>daysBeforeTreatment</t>
+  </si>
+  <si>
+    <t>Baadhi ya madirisha yamezibwa ila sio yote</t>
+  </si>
+  <si>
+    <t>Yamezibwa kwa kutumia nini?</t>
+  </si>
+  <si>
+    <t>Wavu wa madirisha (wire net)</t>
+  </si>
+  <si>
+    <t>Wavu zamani</t>
+  </si>
+  <si>
+    <t>UNK if unknown</t>
+  </si>
+  <si>
+    <t>Ingiza UNK kama haijulikani</t>
+  </si>
+  <si>
+    <t>Je,umewahi kupuliziwa dawa ya ukoko katika nyumba yako ndani ya miezi 12 iliopita?</t>
+  </si>
+  <si>
+    <t>Chandarua kina mda gani tokea kipatikane?</t>
+  </si>
+  <si>
+    <t>In Months</t>
+  </si>
+  <si>
+    <t>Kwa Miezi</t>
+  </si>
+  <si>
+    <t>Lini mara ya mwisho chandarua cha ${memberFName} kimewekewa dawa tena?</t>
+  </si>
+  <si>
+    <t>Je, ${memberFName} atapatikana leo kwaajili ya kupimwa malaria/anemia?</t>
+  </si>
+  <si>
+    <t>Hamlet. UNK if Unknown</t>
+  </si>
+  <si>
+    <t>Kitongoji. UNK kama haijulikaniki</t>
+  </si>
+  <si>
+    <t>Je, ${memberFName} alisafiri nje ya hiki kijiji?</t>
+  </si>
+  <si>
+    <t>UNK kama haijulikani</t>
+  </si>
+  <si>
+    <t>knowIndoorTime</t>
+  </si>
+  <si>
+    <t>Do you know what time ${memberFName} went indoors yesterday evening/night?</t>
+  </si>
+  <si>
+    <t>${knowIndoorTime} ='1'</t>
+  </si>
+  <si>
+    <t>knowSleepTime</t>
+  </si>
+  <si>
+    <t>Do you know what time ${memberFName} went to sleep yesterday evening/night?</t>
+  </si>
+  <si>
+    <t>${knowSleepTime} ='1'</t>
+  </si>
+  <si>
+    <t>knowWakeTime</t>
+  </si>
+  <si>
+    <t>Do you know what time ${memberFName} woke up this morning?</t>
+  </si>
+  <si>
+    <t>Je, unajua ni saa ngapi ${memberFName} aliamka asubuhi ya leo?</t>
+  </si>
+  <si>
+    <t>${knowWakeTime} ='1'</t>
+  </si>
+  <si>
+    <t>knowOutdoorTime</t>
+  </si>
+  <si>
+    <t>Do you know what time ${memberFName} went out of the house for the first time today?</t>
+  </si>
+  <si>
+    <t>Je, unafahamu ni saa ngapi ${memberFName} alitoka nje kwa mara ya kwanza leo?</t>
+  </si>
+  <si>
+    <t>${knowOutdoorTime} ='1'</t>
+  </si>
+  <si>
+    <t>select_multiple symptomsSeen</t>
+  </si>
+  <si>
+    <t>select_multiple whereTreated</t>
+  </si>
+  <si>
+    <t>Je, ${memberFName} alipewa dawa gani kwenye hicho kituo cha tiba?</t>
+  </si>
+  <si>
+    <t>select_multiple whatDrugs</t>
+  </si>
+  <si>
+    <t>You cannot retreat the net before you have obtained the net</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>Bernard Auxensio Mumba</t>
+  </si>
+  <si>
+    <t>Jerry Polo Chessy</t>
+  </si>
+  <si>
+    <t>Said Abdallah Likwinjili</t>
+  </si>
+  <si>
+    <t>Sia James Lymo</t>
+  </si>
+  <si>
+    <t>John Marero Jonathan</t>
+  </si>
+  <si>
+    <t>Lulu Hussein Bangaseka</t>
+  </si>
+  <si>
+    <t>Rosemary Julius Chacha</t>
+  </si>
+  <si>
+    <t>Kassimu Amiri Ndende</t>
+  </si>
+  <si>
+    <t>Mohamed Mkubwa Mohamed</t>
+  </si>
+  <si>
+    <t>Charles Lewis Kimeru</t>
+  </si>
+  <si>
+    <t>Almas Farijala Abdul</t>
+  </si>
+  <si>
+    <t>Ashura Athumani Sira</t>
+  </si>
+  <si>
+    <t>Godlove Thomas Chila</t>
+  </si>
+  <si>
+    <t>Veritas Herman Nderumaki</t>
+  </si>
+  <si>
+    <t>Agnes Joseph Mushi</t>
+  </si>
+  <si>
+    <t>Exavery Pius Chaki</t>
+  </si>
+  <si>
+    <t>Ubwa Mohamed Mtanga</t>
+  </si>
+  <si>
+    <t>Mwajuma Shamte Mpendu</t>
+  </si>
+  <si>
+    <t>Fadhili Henry Mwakitete</t>
+  </si>
+  <si>
+    <t>Dickson Cassian Tumka</t>
+  </si>
+  <si>
+    <t>Samwel Ignas Mnyota</t>
+  </si>
+  <si>
+    <t>Dominick Chasama Masanja</t>
+  </si>
+  <si>
+    <t>Faudhia Ally Ngakonda</t>
+  </si>
+  <si>
+    <t>Abdallah Bakari Kwangaya</t>
+  </si>
+  <si>
+    <t>Hilda Camilius Likonoka</t>
+  </si>
+  <si>
+    <t>Mwatanga Abdallah Kagashani</t>
+  </si>
+  <si>
+    <t>Ally Abdallah Mwimbe</t>
+  </si>
+  <si>
+    <t>Evans Simon Ntilla</t>
+  </si>
+  <si>
+    <t>Stephen Jerome Magasa</t>
+  </si>
+  <si>
+    <t>Bakari Rajabu Kissa</t>
+  </si>
+  <si>
+    <t>Idd Mohamed Mkilalu</t>
+  </si>
+  <si>
+    <t>Lucy Laurence Mushi</t>
+  </si>
+  <si>
+    <t>Ally Nassoro Mangara</t>
+  </si>
+  <si>
+    <t>Tito Bernard Mlekwa</t>
+  </si>
+  <si>
+    <t>Ismail Moshi Mminge</t>
+  </si>
+  <si>
+    <t>JPC</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>SJL</t>
+  </si>
+  <si>
+    <t>JMJ</t>
+  </si>
+  <si>
+    <t>LHB</t>
+  </si>
+  <si>
+    <t>RJC</t>
+  </si>
+  <si>
+    <t>KAN</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>AAS</t>
+  </si>
+  <si>
+    <t>GTC</t>
+  </si>
+  <si>
+    <t>VHN</t>
+  </si>
+  <si>
+    <t>AJM</t>
+  </si>
+  <si>
+    <t>EPC</t>
+  </si>
+  <si>
+    <t>UMM</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>FHM</t>
+  </si>
+  <si>
+    <t>DCT</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>DCM</t>
+  </si>
+  <si>
+    <t>FAN</t>
+  </si>
+  <si>
+    <t>ABK</t>
+  </si>
+  <si>
+    <t>HCL</t>
+  </si>
+  <si>
+    <t>MAK</t>
+  </si>
+  <si>
+    <t>AAM</t>
+  </si>
+  <si>
+    <t>ESN</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>BRK</t>
+  </si>
+  <si>
+    <t>IMM</t>
+  </si>
+  <si>
+    <t>LLM</t>
+  </si>
+  <si>
+    <t>ANM</t>
+  </si>
+  <si>
+    <t>TBM</t>
+  </si>
+  <si>
+    <t>IMO</t>
+  </si>
+  <si>
+    <t>select_one fw</t>
+  </si>
+  <si>
+    <t>interviewer</t>
+  </si>
+  <si>
+    <t>Interviewer</t>
+  </si>
+  <si>
+    <t>Mhojaji</t>
+  </si>
+  <si>
+    <t>minimal</t>
+  </si>
+  <si>
+    <t>select_one supervisor</t>
+  </si>
+  <si>
+    <t>mRDT results?</t>
+  </si>
+  <si>
+    <t>select_one posNeg</t>
+  </si>
+  <si>
+    <t>posNeg</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Highest education level cannot be less that Head of House Level</t>
+  </si>
+  <si>
+    <t>${whatDrugs} ='99'</t>
+  </si>
+  <si>
+    <t>Ingiza tarakimu sahihi</t>
+  </si>
+  <si>
+    <t>Enter the correct digits</t>
+  </si>
+  <si>
+    <t>. &gt;=  ${educationLevelHoH}</t>
+  </si>
+  <si>
+    <t>Aaaaah jamani? Umesahau mkuu wa kaya yuko juu??</t>
+  </si>
+  <si>
+    <t>Unatania eenh…?! Hauwezi weka dawa kabla ya kupata chandarua…</t>
+  </si>
+  <si>
+    <t>regex(.,'[A-Z]{3}[0-9]{6}')</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>Household Information</t>
+  </si>
+  <si>
+    <t>9 characters e.g IKN000001</t>
+  </si>
+  <si>
+    <t>Tarakimu 9, e.g IKN000001</t>
+  </si>
+  <si>
+    <t>regex(.,'[A-Z]{3}[0-9]{9}')</t>
+  </si>
+  <si>
+    <t>12 characters e.g IKN000001001</t>
+  </si>
+  <si>
+    <t>Je, unajua ni saa ngapi ${memberFName} alienda kulala jana jioni/usiku?</t>
+  </si>
+  <si>
+    <t>.&lt;= ${whenObtained}</t>
+  </si>
+  <si>
+    <t>${mrdtResults}='positive'</t>
+  </si>
+  <si>
+    <t>Jina la kati la mwenyekiti wa kitongoji</t>
+  </si>
+  <si>
+    <t>Count months</t>
+  </si>
+  <si>
+    <t>Hesabu miezi</t>
+  </si>
+  <si>
+    <t>Je , unafahamu ${memberFName} aliingia ndani jana jioni/usiku saa ngapi?</t>
+  </si>
+  <si>
+    <t>${fever}='1'</t>
+  </si>
+  <si>
+    <t>${seekTreatment}='1'</t>
+  </si>
+  <si>
+    <t>${everRetreated} ='1'</t>
+  </si>
+  <si>
+    <t>${outOfVillage}='1'</t>
+  </si>
+  <si>
+    <t>${windows} &gt; 0</t>
+  </si>
+  <si>
+    <t>Does ${memberFName} know their age?</t>
+  </si>
+  <si>
+    <t>Je, ${memberFName} anafahamu umri wake?</t>
+  </si>
+  <si>
+    <t>${knowDob}='2'</t>
+  </si>
+  <si>
+    <t>In years</t>
+  </si>
+  <si>
+    <t>Kwa miaka</t>
+  </si>
+  <si>
+    <t>knowAge</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>What is ${memberFName}'s age?</t>
+  </si>
+  <si>
+    <t>Je, ${memberFName} ana umri gani?</t>
+  </si>
+  <si>
+    <t>${knowAge} ='1'</t>
+  </si>
+  <si>
+    <t>ageApprox</t>
+  </si>
+  <si>
+    <t>What is the ${memberFName}'s approximate age?</t>
+  </si>
+  <si>
+    <t>Je, kwa kukadiria, ${memberFName} anaweza akawa ana umri gani?</t>
+  </si>
+  <si>
+    <t>${knowAge} ='2'</t>
+  </si>
+  <si>
+    <t>select_one yesNoNA</t>
+  </si>
+  <si>
+    <t>yesNoNA</t>
+  </si>
+  <si>
+    <t>Haihusiki</t>
+  </si>
+  <si>
+    <t>malariaSymptomsOther</t>
+  </si>
+  <si>
+    <t>${malariaSymptoms} = '99'</t>
+  </si>
+  <si>
+    <t>Tarakimu 12, e.g IKN000001001</t>
+  </si>
+  <si>
+    <t>Kulala nje</t>
+  </si>
+  <si>
+    <t>Kufanya kazi porini/msituni</t>
+  </si>
+  <si>
+    <t>Kun'gatwa na mbu</t>
+  </si>
+  <si>
+    <t>Hakui</t>
+  </si>
+  <si>
+    <t>Ingine</t>
+  </si>
+  <si>
+    <t>Dawa ya kukinga</t>
+  </si>
+  <si>
+    <t>Utumizi wa chandarua</t>
+  </si>
+  <si>
+    <t>Dawa za kupaka</t>
+  </si>
+  <si>
+    <t>Hospitali ya serikali</t>
+  </si>
+  <si>
+    <t>Kituo cha afya cha serikali</t>
+  </si>
+  <si>
+    <t>Zahanati ya serikali</t>
+  </si>
+  <si>
+    <t>Huduma ya kuletewa</t>
+  </si>
+  <si>
+    <t>Wahudumu ya afya vijijini</t>
+  </si>
+  <si>
+    <t>Hospitali binafsi/ya dini</t>
+  </si>
+  <si>
+    <t>Zahanati binafsi/ya dini</t>
+  </si>
+  <si>
+    <t>Duka la dawa baridi</t>
+  </si>
+  <si>
+    <t>Duka la kawaida</t>
+  </si>
+  <si>
+    <t>Mganga wa kienyeji</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>surveyStart</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>surveyEnd</t>
+  </si>
+  <si>
+    <t>${windowScreen}='1' or ${windowScreen}='3'</t>
+  </si>
+  <si>
+    <t>Fill out form for all household members. Please ensure you start with the Head of the Household (even if absent) and then all other members subsequently.</t>
+  </si>
+  <si>
+    <t>Jaza form kwa kila mwana kaya. Tafadhali hakikisha unaanza na taarifa za mkuu wa kaya (hata kama hayupo), kisha orodhesha wanakaya wengine.</t>
+  </si>
+  <si>
+    <t>canSeeNet</t>
+  </si>
+  <si>
+    <t>May I see the net?</t>
+  </si>
+  <si>
+    <t>Je, ninaweza kukiona hicho chandarua?</t>
+  </si>
+  <si>
+    <t>Prescription by study clinician</t>
+  </si>
+  <si>
+    <t>malKnowledge</t>
+  </si>
+  <si>
+    <t>Malaria Knowledge</t>
+  </si>
+  <si>
+    <t>Ujuzi Kuhusu Malaria</t>
+  </si>
+  <si>
+    <t>Travel History</t>
+  </si>
+  <si>
+    <t>Historia ya Kusafiri</t>
+  </si>
+  <si>
+    <t>Does you know what malaria is?</t>
+  </si>
+  <si>
+    <t>Je, umewai kuskia kuhusu malaria?</t>
   </si>
 </sst>
 </file>
@@ -2491,10 +3079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O163"/>
+  <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,9 +3092,12 @@
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2552,44 +3143,36 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>840</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>410</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2606,41 +3189,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>763</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>765</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>323</v>
+        <v>766</v>
+      </c>
+      <c r="E5" t="s">
+        <v>767</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>768</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>604</v>
+        <v>561</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>605</v>
+        <v>562</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>606</v>
+        <v>563</v>
+      </c>
+      <c r="E6" t="s">
+        <v>767</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2648,7 +3237,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -2657,30 +3246,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>320</v>
+        <v>793</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="N8" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
       <c r="O8" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2688,7 +3277,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
@@ -2697,26 +3286,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="C12" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2733,7 +3322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2750,7 +3339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2767,23 +3356,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="C18" t="s">
-        <v>415</v>
+        <v>785</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2802,6 +3391,21 @@
       <c r="F19" t="s">
         <v>19</v>
       </c>
+      <c r="K19" t="s">
+        <v>783</v>
+      </c>
+      <c r="L19" t="s">
+        <v>778</v>
+      </c>
+      <c r="M19" t="s">
+        <v>779</v>
+      </c>
+      <c r="N19" t="s">
+        <v>786</v>
+      </c>
+      <c r="O19" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2811,13 +3415,13 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="E20" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -2831,13 +3435,13 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="E21" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -2865,22 +3469,22 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="N23" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
       <c r="O23" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2891,7 +3495,7 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>44</v>
@@ -2902,42 +3506,45 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E25" t="s">
-        <v>154</v>
-      </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="B26" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="C26" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E26" t="s">
-        <v>154</v>
+        <v>393</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>780</v>
+      </c>
+      <c r="L26" t="s">
+        <v>781</v>
+      </c>
+      <c r="M26" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2948,13 +3555,10 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>154</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
@@ -2968,7 +3572,7 @@
         <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>50</v>
@@ -2988,13 +3592,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E29" t="s">
-        <v>154</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
@@ -3008,7 +3609,7 @@
         <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>62</v>
@@ -3028,13 +3629,10 @@
         <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E31" t="s">
-        <v>154</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
@@ -3051,7 +3649,7 @@
         <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>76</v>
@@ -3071,13 +3669,10 @@
         <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>154</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
@@ -3091,7 +3686,7 @@
         <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>82</v>
@@ -3105,19 +3700,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E35" t="s">
-        <v>154</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
@@ -3131,7 +3723,7 @@
         <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>88</v>
@@ -3151,13 +3743,10 @@
         <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="E37" t="s">
-        <v>154</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -3171,7 +3760,7 @@
         <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>97</v>
@@ -3191,13 +3780,10 @@
         <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>154</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
@@ -3211,7 +3797,7 @@
         <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>107</v>
@@ -3231,7 +3817,7 @@
         <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>118</v>
@@ -3248,13 +3834,10 @@
         <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E42" t="s">
-        <v>154</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -3268,13 +3851,10 @@
         <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E43" t="s">
-        <v>154</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -3288,13 +3868,10 @@
         <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E44" t="s">
-        <v>154</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -3313,9 +3890,6 @@
       <c r="D45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E45" t="s">
-        <v>154</v>
-      </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
@@ -3328,13 +3902,10 @@
         <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" t="s">
-        <v>154</v>
+        <v>611</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -3345,16 +3916,13 @@
         <v>122</v>
       </c>
       <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>405</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C47" t="s">
-        <v>434</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" t="s">
-        <v>154</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -3365,16 +3933,13 @@
         <v>122</v>
       </c>
       <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>406</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C48" t="s">
-        <v>435</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" t="s">
-        <v>154</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -3385,16 +3950,13 @@
         <v>122</v>
       </c>
       <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>407</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C49" t="s">
-        <v>436</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" t="s">
-        <v>154</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -3405,16 +3967,13 @@
         <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="E50" t="s">
-        <v>154</v>
+        <v>596</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
@@ -3425,16 +3984,13 @@
         <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
@@ -3445,16 +4001,13 @@
         <v>122</v>
       </c>
       <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>410</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C52" t="s">
-        <v>439</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52" t="s">
-        <v>154</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -3465,16 +4018,13 @@
         <v>122</v>
       </c>
       <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>411</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C53" t="s">
-        <v>440</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" t="s">
-        <v>154</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -3485,16 +4035,13 @@
         <v>122</v>
       </c>
       <c r="B54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" t="s">
+        <v>412</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C54" t="s">
-        <v>441</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" t="s">
-        <v>154</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -3505,16 +4052,13 @@
         <v>122</v>
       </c>
       <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>413</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C55" t="s">
-        <v>442</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E55" t="s">
-        <v>154</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
@@ -3525,16 +4069,13 @@
         <v>122</v>
       </c>
       <c r="B56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" t="s">
+        <v>414</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C56" t="s">
-        <v>443</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" t="s">
-        <v>154</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -3545,16 +4086,13 @@
         <v>122</v>
       </c>
       <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s">
+        <v>415</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C57" t="s">
-        <v>444</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E57" t="s">
-        <v>154</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -3565,13 +4103,13 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -3579,35 +4117,35 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" t="s">
+        <v>417</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B61" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" t="s">
-        <v>446</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="C62" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -3618,13 +4156,13 @@
         <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>460</v>
+        <v>612</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -3635,22 +4173,22 @@
         <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>468</v>
+        <v>609</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
       <c r="N64" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="O64" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -3658,59 +4196,62 @@
         <v>45</v>
       </c>
       <c r="B65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C65" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="N65" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="O65" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>613</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D66" t="s">
-        <v>474</v>
+        <v>614</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
+      </c>
+      <c r="G66" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s">
-        <v>471</v>
+        <v>658</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>173</v>
+        <v>844</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -3718,19 +4259,19 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -3738,13 +4279,13 @@
         <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
@@ -3752,76 +4293,76 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>816</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
       </c>
       <c r="N70" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="O70" t="s">
-        <v>479</v>
+        <v>610</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>816</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
       </c>
       <c r="N71" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="O71" t="s">
-        <v>479</v>
+        <v>610</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>816</v>
       </c>
       <c r="B72" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="C72" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="D72" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>816</v>
       </c>
       <c r="B73" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="C73" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="D73" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -3829,19 +4370,19 @@
         <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
       </c>
       <c r="N74" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="O74" t="s">
         <v>79</v>
@@ -3852,19 +4393,19 @@
         <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -3872,19 +4413,19 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C76" t="s">
-        <v>193</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -3892,19 +4433,19 @@
         <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -3912,19 +4453,19 @@
         <v>45</v>
       </c>
       <c r="B78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" t="s">
         <v>195</v>
       </c>
-      <c r="C78" t="s">
-        <v>200</v>
-      </c>
       <c r="D78" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -3932,19 +4473,19 @@
         <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -3952,19 +4493,19 @@
         <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -3972,19 +4513,19 @@
         <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -3992,19 +4533,19 @@
         <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C82" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -4012,19 +4553,19 @@
         <v>122</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -4032,19 +4573,19 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -4052,19 +4593,19 @@
         <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
       <c r="N86" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="O86" t="s">
         <v>79</v>
@@ -4075,19 +4616,19 @@
         <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -4095,19 +4636,19 @@
         <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -4115,19 +4656,19 @@
         <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -4135,19 +4676,19 @@
         <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -4155,19 +4696,19 @@
         <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -4175,19 +4716,19 @@
         <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -4195,19 +4736,19 @@
         <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -4215,19 +4756,19 @@
         <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C94" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -4235,19 +4776,19 @@
         <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C95" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -4255,243 +4796,255 @@
         <v>45</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>122</v>
       </c>
       <c r="B97" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="C97" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>538</v>
+        <v>616</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="C98" t="s">
-        <v>645</v>
+        <v>600</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>646</v>
+        <v>617</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="N98" t="s">
+        <v>661</v>
+      </c>
+      <c r="O98" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>122</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C101" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>536</v>
+        <v>663</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>489</v>
+        <v>45</v>
       </c>
       <c r="B102" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="C102" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="N102" t="s">
+        <v>794</v>
+      </c>
+      <c r="O102" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>122</v>
       </c>
       <c r="B103" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="C103" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="C104" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="C105" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>239</v>
+      </c>
+      <c r="B106" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>601</v>
+      </c>
+      <c r="B107" t="s">
+        <v>241</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
         <v>244</v>
       </c>
-      <c r="B106" t="s">
-        <v>242</v>
-      </c>
-      <c r="C106" t="s">
-        <v>243</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F106" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>647</v>
-      </c>
-      <c r="B107" t="s">
-        <v>246</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C110" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="C111" t="s">
-        <v>540</v>
+        <v>845</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B113" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C113" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -4499,16 +5052,31 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C114" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
+      </c>
+      <c r="K114" t="s">
+        <v>788</v>
+      </c>
+      <c r="L114" t="s">
+        <v>778</v>
+      </c>
+      <c r="M114" t="s">
+        <v>779</v>
+      </c>
+      <c r="N114" t="s">
+        <v>789</v>
+      </c>
+      <c r="O114" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -4516,13 +5084,13 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C115" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -4533,22 +5101,22 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C116" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
       </c>
       <c r="N116" t="s">
-        <v>649</v>
+        <v>602</v>
       </c>
       <c r="O116" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -4556,10 +5124,10 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C117" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>21</v>
@@ -4570,16 +5138,16 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>587</v>
+        <v>544</v>
       </c>
       <c r="B118" t="s">
-        <v>588</v>
+        <v>545</v>
       </c>
       <c r="C118" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>590</v>
+        <v>547</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -4590,13 +5158,13 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>595</v>
+        <v>552</v>
       </c>
       <c r="C119" t="s">
-        <v>596</v>
+        <v>553</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -4607,19 +5175,19 @@
         <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
       <c r="C120" t="s">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
       </c>
       <c r="G120" t="s">
-        <v>601</v>
+        <v>558</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -4627,113 +5195,119 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>807</v>
       </c>
       <c r="C121" t="s">
-        <v>272</v>
+        <v>802</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>273</v>
+        <v>803</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
+      </c>
+      <c r="G121" t="s">
+        <v>804</v>
+      </c>
+      <c r="N121" t="s">
+        <v>805</v>
+      </c>
+      <c r="O121" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>279</v>
+        <v>808</v>
       </c>
       <c r="C122" t="s">
-        <v>278</v>
+        <v>809</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>281</v>
+        <v>810</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>339</v>
+        <v>811</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>277</v>
+        <v>812</v>
       </c>
       <c r="C123" t="s">
-        <v>280</v>
+        <v>813</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>282</v>
+        <v>814</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>339</v>
+        <v>815</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C124" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
-      </c>
-      <c r="G124" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>286</v>
+        <v>673</v>
       </c>
       <c r="C125" t="s">
-        <v>287</v>
+        <v>674</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>288</v>
+        <v>796</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>122</v>
+        <v>271</v>
       </c>
       <c r="B126" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C126" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
+      </c>
+      <c r="G126" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -4741,13 +5315,13 @@
         <v>122</v>
       </c>
       <c r="B127" t="s">
-        <v>292</v>
+        <v>676</v>
       </c>
       <c r="C127" t="s">
-        <v>293</v>
+        <v>677</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>652</v>
+        <v>790</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
@@ -4755,62 +5329,59 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>122</v>
+        <v>271</v>
       </c>
       <c r="B128" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="C128" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="F128" t="s">
         <v>19</v>
       </c>
       <c r="G128" t="s">
-        <v>297</v>
+        <v>678</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
       <c r="B129" t="s">
-        <v>299</v>
+        <v>679</v>
       </c>
       <c r="C129" t="s">
-        <v>300</v>
+        <v>680</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>301</v>
+        <v>681</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="B130" t="s">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="C130" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="F130" t="s">
         <v>19</v>
       </c>
       <c r="G130" t="s">
-        <v>302</v>
+        <v>682</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
@@ -4818,13 +5389,13 @@
         <v>122</v>
       </c>
       <c r="B131" t="s">
-        <v>355</v>
+        <v>683</v>
       </c>
       <c r="C131" t="s">
-        <v>356</v>
+        <v>684</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
@@ -4832,19 +5403,22 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>122</v>
+        <v>271</v>
       </c>
       <c r="B132" t="s">
-        <v>375</v>
+        <v>281</v>
       </c>
       <c r="C132" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>653</v>
+        <v>283</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
+      </c>
+      <c r="G132" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
@@ -4852,216 +5426,202 @@
         <v>122</v>
       </c>
       <c r="B133" t="s">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="C133" t="s">
-        <v>358</v>
+        <v>285</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>359</v>
+        <v>286</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="B134" t="s">
-        <v>360</v>
+        <v>287</v>
       </c>
       <c r="C134" t="s">
-        <v>361</v>
+        <v>621</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>654</v>
+        <v>620</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
-      </c>
-      <c r="G134" t="s">
-        <v>377</v>
-      </c>
-      <c r="N134" t="s">
-        <v>362</v>
-      </c>
-      <c r="O134" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>365</v>
+        <v>622</v>
       </c>
       <c r="C135" t="s">
-        <v>366</v>
+        <v>623</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="F135" t="s">
         <v>19</v>
       </c>
       <c r="G135" t="s">
-        <v>377</v>
+        <v>797</v>
+      </c>
+      <c r="N135" t="s">
+        <v>625</v>
+      </c>
+      <c r="O135" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>122</v>
+        <v>687</v>
       </c>
       <c r="B136" t="s">
-        <v>372</v>
+        <v>627</v>
       </c>
       <c r="C136" t="s">
-        <v>373</v>
+        <v>629</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>374</v>
+        <v>628</v>
       </c>
       <c r="F136" t="s">
         <v>19</v>
       </c>
       <c r="G136" t="s">
-        <v>377</v>
+        <v>797</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="B137" t="s">
-        <v>378</v>
+        <v>288</v>
       </c>
       <c r="C137" t="s">
-        <v>379</v>
+        <v>289</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="F137" t="s">
         <v>19</v>
       </c>
       <c r="G137" t="s">
-        <v>661</v>
-      </c>
-      <c r="N137" t="s">
-        <v>362</v>
-      </c>
-      <c r="O137" t="s">
-        <v>363</v>
+        <v>797</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="B138" t="s">
-        <v>381</v>
+        <v>656</v>
       </c>
       <c r="C138" t="s">
-        <v>382</v>
+        <v>655</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>383</v>
+        <v>654</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
+      </c>
+      <c r="G138" t="s">
+        <v>798</v>
+      </c>
+      <c r="N138" t="s">
+        <v>625</v>
+      </c>
+      <c r="O138" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>122</v>
+        <v>688</v>
       </c>
       <c r="B139" t="s">
-        <v>384</v>
+        <v>291</v>
       </c>
       <c r="C139" t="s">
-        <v>385</v>
+        <v>292</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>386</v>
+        <v>293</v>
       </c>
       <c r="F139" t="s">
         <v>19</v>
+      </c>
+      <c r="G139" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>45</v>
+        <v>690</v>
       </c>
       <c r="B140" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="C140" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>389</v>
+        <v>689</v>
       </c>
       <c r="F140" t="s">
         <v>19</v>
       </c>
       <c r="G140" t="s">
-        <v>394</v>
+        <v>798</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>391</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>392</v>
+        <v>653</v>
+      </c>
+      <c r="C141" t="s">
+        <v>327</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>393</v>
+        <v>689</v>
       </c>
       <c r="F141" t="s">
         <v>19</v>
       </c>
       <c r="G141" t="s">
-        <v>394</v>
+        <v>777</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B142" t="s">
-        <v>399</v>
-      </c>
-      <c r="C142" t="s">
-        <v>400</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F142" t="s">
-        <v>19</v>
-      </c>
+      <c r="A142" s="7"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B143" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
       <c r="C143" t="s">
-        <v>449</v>
+        <v>355</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>450</v>
+        <v>604</v>
       </c>
       <c r="F143" t="s">
         <v>19</v>
@@ -5072,85 +5632,99 @@
         <v>122</v>
       </c>
       <c r="B144" t="s">
-        <v>451</v>
+        <v>847</v>
       </c>
       <c r="C144" t="s">
-        <v>452</v>
+        <v>848</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>453</v>
+        <v>849</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="7"/>
+      <c r="A145" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145" t="s">
+        <v>340</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F145" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>156</v>
+      <c r="A146" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B146" t="s">
-        <v>454</v>
+        <v>342</v>
       </c>
       <c r="C146" t="s">
-        <v>543</v>
+        <v>343</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>544</v>
+        <v>664</v>
+      </c>
+      <c r="F146" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>615</v>
+      </c>
+      <c r="N146" t="s">
+        <v>665</v>
+      </c>
+      <c r="O146" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="B147" t="s">
-        <v>545</v>
+        <v>345</v>
       </c>
       <c r="C147" t="s">
-        <v>548</v>
+        <v>346</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>549</v>
+        <v>605</v>
       </c>
       <c r="F147" t="s">
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>586</v>
-      </c>
-      <c r="N147" t="s">
-        <v>33</v>
-      </c>
-      <c r="O147" t="s">
-        <v>34</v>
+        <v>615</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B148" t="s">
-        <v>546</v>
+        <v>352</v>
       </c>
       <c r="C148" t="s">
-        <v>550</v>
+        <v>353</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
       <c r="F148" t="s">
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>586</v>
-      </c>
-      <c r="N148" t="s">
-        <v>551</v>
-      </c>
-      <c r="O148" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
@@ -5158,25 +5732,34 @@
         <v>45</v>
       </c>
       <c r="B149" t="s">
-        <v>547</v>
+        <v>356</v>
       </c>
       <c r="C149" t="s">
-        <v>553</v>
+        <v>357</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="F149" t="s">
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>586</v>
+        <v>799</v>
+      </c>
+      <c r="K149" t="s">
+        <v>791</v>
+      </c>
+      <c r="L149" t="s">
+        <v>782</v>
+      </c>
+      <c r="M149" t="s">
+        <v>691</v>
       </c>
       <c r="N149" t="s">
-        <v>551</v>
+        <v>665</v>
       </c>
       <c r="O149" t="s">
-        <v>552</v>
+        <v>666</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -5184,186 +5767,472 @@
         <v>122</v>
       </c>
       <c r="B150" t="s">
-        <v>554</v>
+        <v>358</v>
       </c>
       <c r="C150" t="s">
-        <v>555</v>
+        <v>359</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="F150" t="s">
         <v>19</v>
-      </c>
-      <c r="G150" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B151" t="s">
-        <v>556</v>
+        <v>360</v>
       </c>
       <c r="C151" t="s">
-        <v>557</v>
+        <v>361</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>659</v>
+        <v>362</v>
       </c>
       <c r="F151" t="s">
         <v>19</v>
       </c>
       <c r="G151" t="s">
-        <v>586</v>
-      </c>
-      <c r="N151" t="s">
-        <v>30</v>
-      </c>
-      <c r="O151" t="s">
-        <v>31</v>
+        <v>652</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>45</v>
+        <v>770</v>
       </c>
       <c r="B152" t="s">
-        <v>558</v>
+        <v>363</v>
       </c>
       <c r="C152" t="s">
-        <v>550</v>
+        <v>769</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>656</v>
+        <v>364</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>586</v>
-      </c>
-      <c r="N152" t="s">
-        <v>551</v>
-      </c>
-      <c r="O152" t="s">
-        <v>552</v>
+        <v>369</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="B153" t="s">
-        <v>559</v>
-      </c>
-      <c r="C153" t="s">
-        <v>553</v>
+        <v>366</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>367</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>657</v>
+        <v>368</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
       </c>
       <c r="G153" t="s">
-        <v>586</v>
-      </c>
-      <c r="N153" t="s">
-        <v>551</v>
-      </c>
-      <c r="O153" t="s">
-        <v>552</v>
+        <v>792</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
+      <c r="C154" s="17"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B155" t="s">
-        <v>560</v>
+        <v>373</v>
       </c>
       <c r="C155" t="s">
-        <v>561</v>
+        <v>374</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="F155" t="s">
         <v>19</v>
+      </c>
+      <c r="G155" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>602</v>
+        <v>122</v>
       </c>
       <c r="B156" t="s">
-        <v>563</v>
+        <v>419</v>
       </c>
       <c r="C156" t="s">
-        <v>564</v>
+        <v>420</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>565</v>
+        <v>421</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
+      </c>
+      <c r="G156" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>572</v>
+        <v>122</v>
       </c>
       <c r="B157" t="s">
-        <v>573</v>
+        <v>422</v>
       </c>
       <c r="C157" t="s">
-        <v>574</v>
+        <v>423</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>575</v>
+        <v>424</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
       </c>
+      <c r="G157" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="B158" t="s">
-        <v>577</v>
-      </c>
-      <c r="C158" t="s">
-        <v>579</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F158" t="s">
-        <v>19</v>
-      </c>
+      <c r="A158" s="7"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A159" s="7"/>
+      <c r="A159" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" t="s">
+        <v>425</v>
+      </c>
+      <c r="C159" t="s">
+        <v>854</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>260</v>
+      <c r="A160" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" t="s">
+        <v>504</v>
+      </c>
+      <c r="C160" t="s">
+        <v>507</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F160" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" t="s">
+        <v>543</v>
+      </c>
+      <c r="N160" t="s">
+        <v>669</v>
+      </c>
+      <c r="O160" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B161" t="s">
+        <v>505</v>
+      </c>
+      <c r="C161" t="s">
+        <v>509</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F161" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" t="s">
+        <v>543</v>
+      </c>
+      <c r="N161" t="s">
+        <v>510</v>
+      </c>
+      <c r="O161" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" t="s">
+        <v>506</v>
+      </c>
+      <c r="C162" t="s">
+        <v>512</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s">
+        <v>543</v>
+      </c>
+      <c r="N162" t="s">
+        <v>510</v>
+      </c>
+      <c r="O162" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B163" t="s">
+        <v>513</v>
+      </c>
+      <c r="C163" t="s">
+        <v>514</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F163" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s">
+        <v>543</v>
+      </c>
+      <c r="N163" t="s">
+        <v>661</v>
+      </c>
+      <c r="O163" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>515</v>
+      </c>
+      <c r="C164" t="s">
+        <v>516</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F164" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
+        <v>800</v>
+      </c>
+      <c r="N164" t="s">
+        <v>30</v>
+      </c>
+      <c r="O164" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" t="s">
+        <v>517</v>
+      </c>
+      <c r="C165" t="s">
+        <v>509</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F165" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s">
+        <v>800</v>
+      </c>
+      <c r="N165" t="s">
+        <v>510</v>
+      </c>
+      <c r="O165" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" t="s">
+        <v>518</v>
+      </c>
+      <c r="C166" t="s">
+        <v>512</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F166" t="s">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s">
+        <v>800</v>
+      </c>
+      <c r="N166" t="s">
+        <v>510</v>
+      </c>
+      <c r="O166" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>154</v>
+      </c>
+      <c r="B173" t="s">
+        <v>851</v>
+      </c>
+      <c r="C173" t="s">
+        <v>852</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="B175" t="s">
+        <v>519</v>
+      </c>
+      <c r="C175" t="s">
+        <v>856</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B176" t="s">
+        <v>520</v>
+      </c>
+      <c r="C176" t="s">
+        <v>521</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F176" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B177" t="s">
+        <v>819</v>
+      </c>
+      <c r="C177" t="s">
+        <v>521</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F177" t="s">
+        <v>19</v>
+      </c>
+      <c r="G177" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B178" t="s">
+        <v>530</v>
+      </c>
+      <c r="C178" t="s">
+        <v>531</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F178" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B179" t="s">
+        <v>534</v>
+      </c>
+      <c r="C179" t="s">
+        <v>536</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F179" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>842</v>
+      </c>
+      <c r="B183" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -5374,19 +6243,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -5400,8 +6270,9 @@
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -5409,13 +6280,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>609</v>
+        <v>565</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
@@ -5423,13 +6294,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
@@ -5437,13 +6308,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>612</v>
+        <v>568</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
@@ -5451,13 +6322,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
@@ -5465,13 +6336,13 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>613</v>
+        <v>569</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
@@ -5479,13 +6350,13 @@
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -5493,13 +6364,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>63</v>
       </c>
@@ -5507,13 +6378,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>63</v>
       </c>
@@ -5521,13 +6392,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -5535,13 +6406,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>617</v>
+        <v>573</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -5555,7 +6426,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>63</v>
       </c>
@@ -5563,13 +6434,13 @@
         <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>75</v>
       </c>
@@ -5577,13 +6448,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>619</v>
+        <v>575</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
@@ -5591,13 +6462,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>620</v>
+        <v>576</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>75</v>
       </c>
@@ -5633,7 +6504,7 @@
         <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>69</v>
@@ -5647,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>84</v>
@@ -5661,7 +6532,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>85</v>
@@ -5675,10 +6546,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>623</v>
+        <v>579</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>638</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5689,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>624</v>
+        <v>580</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>86</v>
@@ -5717,7 +6588,7 @@
         <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>69</v>
@@ -5731,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>625</v>
+        <v>581</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>89</v>
@@ -5745,7 +6616,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>627</v>
+        <v>583</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>90</v>
@@ -5759,10 +6630,10 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>626</v>
+        <v>582</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>639</v>
+        <v>595</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,7 +6644,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>91</v>
@@ -5787,7 +6658,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>629</v>
+        <v>585</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>92</v>
@@ -5801,7 +6672,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>630</v>
+        <v>586</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>93</v>
@@ -5815,7 +6686,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>631</v>
+        <v>587</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>94</v>
@@ -5843,7 +6714,7 @@
         <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>69</v>
@@ -5857,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>632</v>
+        <v>588</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>98</v>
@@ -5871,7 +6742,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>633</v>
+        <v>589</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>99</v>
@@ -5885,7 +6756,7 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>634</v>
+        <v>590</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>100</v>
@@ -5899,7 +6770,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>635</v>
+        <v>591</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>101</v>
@@ -5927,7 +6798,7 @@
         <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>69</v>
@@ -5941,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>636</v>
+        <v>592</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>103</v>
@@ -5955,7 +6826,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>637</v>
+        <v>593</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>104</v>
@@ -5969,7 +6840,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>621</v>
+        <v>577</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>105</v>
@@ -5997,7 +6868,7 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>69</v>
@@ -6005,35 +6876,35 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>473</v>
+        <v>659</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>171</v>
+        <v>660</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B47">
         <v>99</v>
@@ -6047,69 +6918,69 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B52">
         <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>69</v>
@@ -6117,63 +6988,63 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B57">
         <v>99</v>
@@ -6187,999 +7058,1860 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>303</v>
+        <v>830</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>304</v>
+        <v>831</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>305</v>
+        <v>832</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>306</v>
+        <v>833</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>307</v>
+        <v>766</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>308</v>
+        <v>834</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B64">
         <v>7</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>309</v>
+        <v>835</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B65">
         <v>8</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>310</v>
+        <v>836</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B66">
         <v>9</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>311</v>
+        <v>837</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B67">
         <v>10</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>312</v>
+        <v>838</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B68">
         <v>11</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>313</v>
+        <v>839</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B69">
         <v>12</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>314</v>
+        <v>818</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B73">
         <v>4</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B74">
         <v>5</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B76">
         <v>7</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B77">
         <v>8</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B78">
         <v>9</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B80">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B86">
         <v>98</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>396</v>
+        <v>850</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>396</v>
+        <v>850</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>461</v>
-      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>57</v>
+        <v>597</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>643</v>
+        <v>57</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>464</v>
+        <v>598</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>644</v>
+        <v>434</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="B96">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>60</v>
+        <v>599</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>494</v>
+        <v>60</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>516</v>
+        <v>462</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>527</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>529</v>
+        <v>479</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>175</v>
+        <v>491</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>176</v>
+        <v>492</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>531</v>
+        <v>172</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>530</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>566</v>
+        <v>495</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>570</v>
+        <v>657</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>568</v>
+        <v>524</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>570</v>
+        <v>528</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="B115">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>69</v>
+        <v>527</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="B116">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>60</v>
+        <v>526</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>580</v>
+        <v>60</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>581</v>
+        <v>305</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>577</v>
+        <v>534</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>582</v>
+        <v>537</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>582</v>
+        <v>827</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>577</v>
+        <v>534</v>
       </c>
       <c r="B120">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>569</v>
+        <v>828</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>577</v>
+        <v>534</v>
       </c>
       <c r="B121">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>60</v>
+        <v>539</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>60</v>
+        <v>829</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>583</v>
+        <v>526</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>583</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>584</v>
+        <v>60</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>584</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>585</v>
+        <v>305</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>585</v>
+        <v>818</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="B125">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>541</v>
+        <v>822</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="B126">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>60</v>
+        <v>541</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>60</v>
+        <v>823</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>592</v>
+        <v>542</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="B128">
+        <v>98</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B129">
+        <v>99</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B132">
         <v>2</v>
       </c>
-      <c r="C128" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>593</v>
+      <c r="C132" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B138">
+        <v>6</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B139">
+        <v>7</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B140">
+        <v>8</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B141">
+        <v>9</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B143">
+        <v>11</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B144">
+        <v>99</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B145">
+        <v>98</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B147" t="s">
+        <v>754</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B148" t="s">
+        <v>739</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B149" t="s">
+        <v>751</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B150" t="s">
+        <v>738</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B151" t="s">
+        <v>742</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B152" t="s">
+        <v>760</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B153" t="s">
+        <v>693</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B154" t="s">
+        <v>757</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B155" t="s">
+        <v>737</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B156" t="s">
+        <v>749</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B157" t="s">
+        <v>747</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B158" t="s">
+        <v>743</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B159" t="s">
+        <v>755</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B160" t="s">
+        <v>750</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B161" t="s">
+        <v>746</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B162" t="s">
+        <v>740</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B163" t="s">
+        <v>752</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B164" t="s">
+        <v>758</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B165" t="s">
+        <v>762</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B166" t="s">
+        <v>732</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B167" t="s">
+        <v>729</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B168" t="s">
+        <v>735</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B169" t="s">
+        <v>733</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B170" t="s">
+        <v>759</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B171" t="s">
+        <v>753</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="D171" s="15" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B172" t="s">
+        <v>736</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B173" t="s">
+        <v>745</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B174" t="s">
+        <v>734</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B175" t="s">
+        <v>730</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B176" t="s">
+        <v>748</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="D176" s="15" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B177" t="s">
+        <v>731</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B178" t="s">
+        <v>756</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B179" t="s">
+        <v>761</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="D179" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B180" t="s">
+        <v>744</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B181" t="s">
+        <v>741</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="D181" s="15" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B182" t="s">
+        <v>754</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="D182" s="15" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B183" t="s">
+        <v>751</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B184" t="s">
+        <v>737</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="D184" s="15" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B185" t="s">
+        <v>746</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B186" t="s">
+        <v>758</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B187" t="s">
+        <v>772</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B188" t="s">
+        <v>774</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="B191">
+        <v>9</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>818</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B178:D182">
+    <sortCondition ref="B178"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -7190,7 +8922,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7202,9 +8934,7 @@
       <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>640</v>
-      </c>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7213,14 +8943,9 @@
       <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>660</v>
-      </c>
+      <c r="C2" s="19"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>